--- a/Sep19/pos_prof/Tables/groups-M_%pop.xlsx
+++ b/Sep19/pos_prof/Tables/groups-M_%pop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -440,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,10 +492,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.2016509700010976</v>
@@ -504,33 +516,39 @@
         <v>505635568.25</v>
       </c>
       <c r="F2">
+        <v>6308727034979.312</v>
+      </c>
+      <c r="G2">
+        <v>399825921028.5854</v>
+      </c>
+      <c r="H2">
         <v>22.6813809666624</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>18.75779945615882</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>14.4747401051209</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>11.83884663508392</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>3.047506663052518</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2.520327969045123</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>15.23753331526257</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>12.60163984522558</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.2213307288476244</v>
@@ -545,33 +563,39 @@
         <v>4474178143.75</v>
       </c>
       <c r="F3">
+        <v>16630145391623.02</v>
+      </c>
+      <c r="G3">
+        <v>1639742485782.957</v>
+      </c>
+      <c r="H3">
         <v>9.1586635944797</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>11.32813667685503</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>10.07736932372365</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>11.53483870876013</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.230572704980259</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1.522066581987551</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>6.152863524901259</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>7.610332909937741</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.3720453617170856</v>
@@ -586,33 +610,39 @@
         <v>3433428530.25</v>
       </c>
       <c r="F4">
+        <v>4450994137606.095</v>
+      </c>
+      <c r="G4">
+        <v>601350231413.5104</v>
+      </c>
+      <c r="H4">
         <v>1.051942434381382</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>6.005275045911471</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.8857947466292048</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>4.213483250283521</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.1413406698047576</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.8068783705356207</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.7067033490237877</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>4.034391852678103</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.439636374826367</v>
@@ -627,33 +657,39 @@
         <v>3959384333.5</v>
       </c>
       <c r="F5">
+        <v>4183547438952.192</v>
+      </c>
+      <c r="G5">
+        <v>598849276038.3025</v>
+      </c>
+      <c r="H5">
         <v>1.363547740652137</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>7.411304738984082</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.296944175745303</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>5.359875744160107</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.1832084576832126</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.9957947713661734</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.9160422884160622</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>4.978973856830867</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.2096734066447806</v>
@@ -668,33 +704,39 @@
         <v>759996120.5</v>
       </c>
       <c r="F6">
+        <v>11223287075501.79</v>
+      </c>
+      <c r="G6">
+        <v>872292028558.4308</v>
+      </c>
+      <c r="H6">
         <v>44.03022688995344</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>26.56809486106032</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>48.79020473363363</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>37.05900463885715</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>5.915971784084586</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>3.569731765129266</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>29.57985892042272</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>17.84865882564625</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.387039958292552</v>
@@ -709,33 +751,39 @@
         <v>3118581654.5</v>
       </c>
       <c r="F7">
+        <v>1841737275230.086</v>
+      </c>
+      <c r="G7">
+        <v>214321200777.9413</v>
+      </c>
+      <c r="H7">
         <v>0.6149815247139524</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>6.109013985225655</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.913699635514071</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>4.604634626431421</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.08262990234036661</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.8208169005238364</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.4131495117018334</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>4.104084502619182</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.2684919396530561</v>
@@ -750,33 +798,39 @@
         <v>437799251.25</v>
       </c>
       <c r="F8">
+        <v>6192585801479.285</v>
+      </c>
+      <c r="G8">
+        <v>516695167857.3162</v>
+      </c>
+      <c r="H8">
         <v>30.02859123980696</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>33.66743051973352</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>24.33376068004076</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>26.77836203999606</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>4.034689599363415</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>4.523609871354475</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>20.17344799681706</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>22.61804935677235</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.2116872184609259</v>
@@ -791,33 +845,39 @@
         <v>1279357787</v>
       </c>
       <c r="F9">
+        <v>14653861967257.56</v>
+      </c>
+      <c r="G9">
+        <v>1232540278767.842</v>
+      </c>
+      <c r="H9">
         <v>28.4415374847546</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>20.71073845416328</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>30.70152929847398</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>25.50791661874442</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>3.821450515717981</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2.782727979772056</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>19.10725257858978</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>13.91363989886023</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.2458369632575438</v>
@@ -832,33 +892,39 @@
         <v>957160917.75</v>
       </c>
       <c r="F10">
+        <v>9623160693235.053</v>
+      </c>
+      <c r="G10">
+        <v>876943418066.7275</v>
+      </c>
+      <c r="H10">
         <v>16.78985768968793</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>21.98624178564673</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>13.42634893710126</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>16.91732137380842</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>2.255912162325311</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>2.954106649666744</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>11.27956081162654</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>14.77053324833369</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.2034671187804626</v>
@@ -873,27 +939,33 @@
         <v>322196869.25</v>
       </c>
       <c r="F11">
+        <v>5030701274022.499</v>
+      </c>
+      <c r="G11">
+        <v>355596860701.1148</v>
+      </c>
+      <c r="H11">
         <v>63.0555688126681</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>16.92155843451324</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>82.0214801331244</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>51.02828262292694</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>8.472247187312739</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>2.273607685273189</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>42.36123593656325</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>11.36803842636579</v>
       </c>
     </row>
